--- a/biology/Histoire de la zoologie et de la botanique/Willem_Hendrik_de_Vriese/Willem_Hendrik_de_Vriese.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Willem_Hendrik_de_Vriese/Willem_Hendrik_de_Vriese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem Hendrik de Vriese (né le 11 août 1806 à Oosterhout, mort le 23 janvier 1862 à Leyde) est un botaniste et médecin néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem Hendrik de Vriese est né le 11 août 1806 à Oosterhout dans le Brabant-Septentrional.
 Il étudie la médecine à l'Université de Leyde, obtenant son doctorat en 1831. Il exerce ensuite la médecine à Rotterdam où il donne également des cours de botanique à l'école de médecine. En 1834, il est nommé professeur de botanique à l'Athenaeum Illustre à Amsterdam et, en 1841, est promu professeur titulaire. En 1845, il devient professeur de botanique à Leyde et successeur de Caspar Georg Carl Reinwardt (1773-1854) à l'Hortus Botanicus Leiden. En 1838, il devint membre de l'Académie royale des arts et des sciences néerlandaise.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Willem Hendrik de Vriese » (voir la liste des auteurs).</t>
         </is>
